--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220505_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220505_110006.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-05</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220505_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220505_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="251">
   <si>
     <t>사이트</t>
   </si>
@@ -685,7 +685,7 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>플렉스엠</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1179,7 @@
         <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1260,7 +1257,7 @@
         <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1286,7 +1283,7 @@
         <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1312,7 +1309,7 @@
         <v>218</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1338,7 +1335,7 @@
         <v>217</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1390,7 +1387,7 @@
         <v>217</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1416,7 +1413,7 @@
         <v>218</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1468,7 +1465,7 @@
         <v>217</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1494,7 +1491,7 @@
         <v>217</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1520,7 +1517,7 @@
         <v>217</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1546,7 +1543,7 @@
         <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1572,7 +1569,7 @@
         <v>222</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1598,7 +1595,7 @@
         <v>217</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1624,7 +1621,7 @@
         <v>217</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1650,7 +1647,7 @@
         <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>217</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1702,7 +1699,7 @@
         <v>217</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1728,7 +1725,7 @@
         <v>217</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1780,7 +1777,7 @@
         <v>217</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1806,7 +1803,7 @@
         <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1832,7 +1829,7 @@
         <v>217</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1858,7 +1855,7 @@
         <v>217</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1884,7 +1881,7 @@
         <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1910,7 +1907,7 @@
         <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1936,7 +1933,7 @@
         <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1962,7 +1959,7 @@
         <v>228</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2014,7 +2011,7 @@
         <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2040,7 +2037,7 @@
         <v>213</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2066,7 +2063,7 @@
         <v>230</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,7 +2089,7 @@
         <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,7 +2115,7 @@
         <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2144,7 +2141,7 @@
         <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2196,7 +2193,7 @@
         <v>213</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2222,7 +2219,7 @@
         <v>221</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2248,7 +2245,7 @@
         <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2274,7 +2271,7 @@
         <v>216</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2326,7 +2323,7 @@
         <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2352,7 +2349,7 @@
         <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2378,7 +2375,7 @@
         <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2430,7 +2427,7 @@
         <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2456,7 +2453,7 @@
         <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2482,7 +2479,7 @@
         <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2534,7 +2531,7 @@
         <v>236</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2560,7 +2557,7 @@
         <v>213</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2638,7 +2635,7 @@
         <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2664,7 +2661,7 @@
         <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2690,7 +2687,7 @@
         <v>223</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2716,7 +2713,7 @@
         <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2742,7 +2739,7 @@
         <v>218</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2768,7 +2765,7 @@
         <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2794,7 +2791,7 @@
         <v>228</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2820,7 +2817,7 @@
         <v>239</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2846,7 +2843,7 @@
         <v>224</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2872,7 +2869,7 @@
         <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2924,7 +2921,7 @@
         <v>240</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2976,7 +2973,7 @@
         <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3002,7 +2999,7 @@
         <v>232</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3028,7 +3025,7 @@
         <v>224</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3106,7 +3103,7 @@
         <v>241</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3132,7 +3129,7 @@
         <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3158,7 +3155,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3184,7 +3181,7 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3210,7 +3207,7 @@
         <v>213</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3236,7 +3233,7 @@
         <v>228</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3262,7 +3259,7 @@
         <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3288,7 +3285,7 @@
         <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3340,7 +3337,7 @@
         <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3366,7 +3363,7 @@
         <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3418,7 +3415,7 @@
         <v>223</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3444,7 +3441,7 @@
         <v>223</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3522,7 +3519,7 @@
         <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3548,7 +3545,7 @@
         <v>247</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3574,7 +3571,7 @@
         <v>213</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3600,7 +3597,7 @@
         <v>213</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3626,7 +3623,7 @@
         <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3652,7 +3649,7 @@
         <v>249</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3678,7 +3675,7 @@
         <v>223</v>
       </c>
       <c r="H98" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3704,7 +3701,7 @@
         <v>250</v>
       </c>
       <c r="H99" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3730,7 +3727,7 @@
         <v>223</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:8">
